--- a/Software/CDNS.xlsx
+++ b/Software/CDNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A90A342-7BAA-374B-814D-D5696D8B31A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DA7563-8C56-4640-85C1-903ED4CB7B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1942,11 +1942,11 @@
     <v>Powered by Refinitiv</v>
     <v>328.99</v>
     <v>241.29</v>
-    <v>1.0162</v>
-    <v>5.54</v>
-    <v>1.9023999999999999E-2</v>
-    <v>2.08</v>
-    <v>7.0089999999999996E-3</v>
+    <v>1.0192000000000001</v>
+    <v>4.97</v>
+    <v>1.6747999999999999E-2</v>
+    <v>-0.02</v>
+    <v>-6.6290000000000004E-5</v>
     <v>USD</v>
     <v>Cadence Design Systems, Inc. is an electronic system designing company. The Company applies its Intelligent System Design strategy to deliver software, hardware and intellectual property (IP) that turn design concepts into reality. Its Custom IC Design and Simulation offerings are used by its customers to create schematic and physical representations of circuits down to the transistor level for analog, mixed-signal, custom digital, memory and radio frequency (RF) designs. Its Digital IC Design and Signoff solutions are used to create logical representations of a digital circuit or an integrated circuit (IC) that can be verified for correctness prior to implementation. Its Functional Verification products are used by its customers to verify that the circuitry or the software they have designed is consistent with the functional specification. Its IP offerings consist of pre-verified, customizable functional blocks. It also offers multi-domain, engineering simulation solutions.</v>
     <v>12703</v>
@@ -1954,25 +1954,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2655 Seely Avenue Bldg 5, SAN JOSE, CA, 95134 US</v>
-    <v>305</v>
+    <v>304.35000000000002</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45602.966749235937</v>
+    <v>45604.022249432812</v>
     <v>0</v>
-    <v>293.60000000000002</v>
-    <v>81387545250</v>
+    <v>297.73</v>
+    <v>82750632360</v>
     <v>CADENCE DESIGN SYSTEMS, INC.</v>
     <v>CADENCE DESIGN SYSTEMS, INC.</v>
-    <v>298</v>
-    <v>78.038700000000006</v>
-    <v>291.20999999999998</v>
+    <v>298.73</v>
+    <v>79.345699999999994</v>
     <v>296.75</v>
-    <v>298.83</v>
+    <v>301.72000000000003</v>
+    <v>301.7</v>
     <v>274263000</v>
     <v>CDNS</v>
     <v>CADENCE DESIGN SYSTEMS, INC. (XNAS:CDNS)</v>
-    <v>2756858</v>
-    <v>2222336</v>
+    <v>1509020</v>
+    <v>2284526</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2899,14 +2899,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>296.75</v>
+        <v>301.72000000000003</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>17.578303509719223</v>
+        <v>17.872706773218141</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2946,14 +2946,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.9023999999999999E-2</v>
+        <v>1.6747999999999999E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>50.208232726711906</v>
+        <v>51.049125453423812</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2994,14 +2994,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>81387545250</v>
+        <v>82750632360</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>2.1268610506470585E-2</v>
+        <v>2.0918269149526533E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3043,7 +3043,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.0162</v>
+        <v>1.0192000000000001</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.53323965001686524</v>
+        <v>-0.5409282319451969</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>

--- a/Software/CDNS.xlsx
+++ b/Software/CDNS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DA7563-8C56-4640-85C1-903ED4CB7B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AE076D-8F69-6041-8A3E-89DE2F845E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1942,11 +1942,11 @@
     <v>Powered by Refinitiv</v>
     <v>328.99</v>
     <v>241.29</v>
-    <v>1.0192000000000001</v>
-    <v>4.97</v>
-    <v>1.6747999999999999E-2</v>
-    <v>-0.02</v>
-    <v>-6.6290000000000004E-5</v>
+    <v>1.0182</v>
+    <v>5.3049999999999997</v>
+    <v>1.8023999999999998E-2</v>
+    <v>1.35</v>
+    <v>4.5059999999999996E-3</v>
     <v>USD</v>
     <v>Cadence Design Systems, Inc. is an electronic system designing company. The Company applies its Intelligent System Design strategy to deliver software, hardware and intellectual property (IP) that turn design concepts into reality. Its Custom IC Design and Simulation offerings are used by its customers to create schematic and physical representations of circuits down to the transistor level for analog, mixed-signal, custom digital, memory and radio frequency (RF) designs. Its Digital IC Design and Signoff solutions are used to create logical representations of a digital circuit or an integrated circuit (IC) that can be verified for correctness prior to implementation. Its Functional Verification products are used by its customers to verify that the circuitry or the software they have designed is consistent with the functional specification. Its IP offerings consist of pre-verified, customizable functional blocks. It also offers multi-domain, engineering simulation solutions.</v>
     <v>12703</v>
@@ -1954,25 +1954,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2655 Seely Avenue Bldg 5, SAN JOSE, CA, 95134 US</v>
-    <v>304.35000000000002</v>
+    <v>300</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45604.022249432812</v>
+    <v>45616.037940068753</v>
     <v>0</v>
-    <v>297.73</v>
-    <v>82750632360</v>
+    <v>290.05</v>
+    <v>82177422690</v>
     <v>CADENCE DESIGN SYSTEMS, INC.</v>
     <v>CADENCE DESIGN SYSTEMS, INC.</v>
-    <v>298.73</v>
-    <v>79.345699999999994</v>
-    <v>296.75</v>
-    <v>301.72000000000003</v>
-    <v>301.7</v>
+    <v>291.38</v>
+    <v>77.401399999999995</v>
+    <v>294.32499999999999</v>
+    <v>299.63</v>
+    <v>300.98</v>
     <v>274263000</v>
     <v>CDNS</v>
     <v>CADENCE DESIGN SYSTEMS, INC. (XNAS:CDNS)</v>
-    <v>1509020</v>
-    <v>2284526</v>
+    <v>1260131</v>
+    <v>2361928</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2137,9 +2137,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2899,14 +2899,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>301.72000000000003</v>
+        <v>299.63</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>17.872706773218141</v>
+        <v>17.748903388768898</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2946,14 +2946,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.6747999999999999E-2</v>
+        <v>1.8023999999999998E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>51.049125453423812</v>
+        <v>50.695510604565087</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2994,14 +2994,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>82750632360</v>
+        <v>82177422690</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>2.0918269149526533E-2</v>
+        <v>2.106417971429812E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3043,7 +3043,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.0192000000000001</v>
+        <v>1.0182</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.5409282319451969</v>
+        <v>-0.53772608264360966</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
